--- a/admin/Format/format_data_siswa.xlsx
+++ b/admin/Format/format_data_siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ujianonline\admin\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70553F7A-8F74-4914-9264-CACDE17AEBD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88FA328-92D4-4BFD-8FBB-0CE3C5149E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FB0C925E-ACF3-4895-83CF-71B9C68F2988}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Nama Si guru</t>
   </si>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E981138-9787-42B8-86C1-5DDFB0D4EB22}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -651,7 +651,7 @@
       <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="5">
@@ -676,12 +676,66 @@
         <v>123456</v>
       </c>
       <c r="Q2" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>444</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>31502</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="5">
+        <v>8122</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="9">
+        <v>23</v>
+      </c>
+      <c r="N3" s="9">
+        <v>2018</v>
+      </c>
+      <c r="O3" s="9">
+        <v>123456</v>
+      </c>
+      <c r="P3" s="9">
+        <v>123456</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{62EEDECF-97B6-4613-A3EB-0A00D857F5BD}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{8891B093-723C-473E-BEB2-17913BDA6EB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
